--- a/output.xlsx
+++ b/output.xlsx
@@ -375,394 +375,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>id</v>
+        <v>省份</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>站点名称</v>
       </c>
       <c r="C1" t="str">
-        <v>avatar_url</v>
+        <v>充值金额</v>
       </c>
       <c r="D1" t="str">
-        <v>longitude</v>
+        <v>手续费</v>
       </c>
       <c r="E1" t="str">
-        <v>latitude</v>
-      </c>
-      <c r="F1" t="str">
-        <v>address</v>
-      </c>
-      <c r="G1" t="str">
-        <v>oil_gum_nums</v>
-      </c>
-      <c r="H1" t="str">
-        <v>province</v>
-      </c>
-      <c r="I1" t="str">
-        <v>city</v>
-      </c>
-      <c r="J1" t="str">
-        <v>created_at</v>
-      </c>
-      <c r="K1" t="str">
-        <v>updated_at</v>
-      </c>
-      <c r="L1" t="str">
-        <v>deleted_at</v>
+        <v>沉淀金额</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>安徽</v>
       </c>
       <c r="B2" t="str">
-        <v>你家</v>
-      </c>
-      <c r="C2">
-        <v>null</v>
+        <v>华富加油站</v>
+      </c>
+      <c r="C2" t="str">
+        <v>611.01</v>
       </c>
       <c r="D2" t="str">
-        <v>114.0578680</v>
+        <v>1.83</v>
       </c>
       <c r="E2" t="str">
-        <v>22.5430990</v>
-      </c>
-      <c r="F2" t="str">
-        <v>深圳</v>
-      </c>
-      <c r="G2" t="str">
-        <v>4</v>
-      </c>
-      <c r="H2" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I2">
-        <v>null</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Fri May 25 2018 15:57:14 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Fri May 25 2018 15:57:14 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L2">
-        <v>null</v>
+        <v>553.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>63</v>
+        <v>安徽</v>
       </c>
       <c r="B3" t="str">
-        <v>油站2</v>
+        <v>广阳加油站</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>172.00</v>
       </c>
       <c r="D3" t="str">
-        <v>118.3374810</v>
+        <v>0.51</v>
       </c>
       <c r="E3" t="str">
-        <v>29.7146550</v>
-      </c>
-      <c r="F3" t="str">
-        <v>安徽黄山</v>
-      </c>
-      <c r="G3" t="str">
-        <v>12</v>
-      </c>
-      <c r="H3" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <v>Wed May 23 2018 07:25:51 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Wed May 23 2018 07:25:51 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L3">
-        <v>null</v>
+        <v>59.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>64</v>
+        <v>安徽</v>
       </c>
       <c r="B4" t="str">
-        <v>你家的油站</v>
-      </c>
-      <c r="C4">
-        <v>null</v>
+        <v>雨坛加油站</v>
+      </c>
+      <c r="C4" t="str">
+        <v>70.00</v>
       </c>
       <c r="D4" t="str">
-        <v>114.0578680</v>
+        <v>0.21</v>
       </c>
       <c r="E4" t="str">
-        <v>22.5430990</v>
-      </c>
-      <c r="F4" t="str">
-        <v>深圳</v>
-      </c>
-      <c r="G4" t="str">
-        <v>5</v>
-      </c>
-      <c r="H4" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I4">
-        <v>null</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Fri May 25 2018 07:36:15 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Fri May 25 2018 07:36:15 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L4">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>66</v>
-      </c>
-      <c r="B5" t="str">
-        <v>测试</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>114.0681900</v>
-      </c>
-      <c r="E5" t="str">
-        <v>22.5348540</v>
-      </c>
-      <c r="F5" t="str">
-        <v>深圳市岗厦地铁站</v>
-      </c>
-      <c r="G5" t="str">
-        <v>8</v>
-      </c>
-      <c r="H5" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
-      <c r="J5" t="str">
-        <v>Fri Jun 01 2018 11:16:02 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Fri Jun 01 2018 15:00:29 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L5">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>67</v>
-      </c>
-      <c r="B6" t="str">
-        <v>测试油站1111</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>114.0681900</v>
-      </c>
-      <c r="E6" t="str">
-        <v>22.5348540</v>
-      </c>
-      <c r="F6" t="str">
-        <v>深圳市岗厦地铁站</v>
-      </c>
-      <c r="G6" t="str">
-        <v>5</v>
-      </c>
-      <c r="H6" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <v>Fri Jun 01 2018 11:22:10 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Fri Jun 01 2018 15:03:39 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L6">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>68</v>
-      </c>
-      <c r="B7" t="str">
-        <v>测试油站</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>114.0681900</v>
-      </c>
-      <c r="E7" t="str">
-        <v>22.5348540</v>
-      </c>
-      <c r="F7" t="str">
-        <v>深圳岗厦地铁站</v>
-      </c>
-      <c r="G7" t="str">
-        <v>5</v>
-      </c>
-      <c r="H7" t="str">
-        <v>广东省</v>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <v>Fri Jun 01 2018 11:24:31 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Fri Jun 01 2018 15:02:37 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L7">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>69</v>
-      </c>
-      <c r="B8" t="str">
-        <v>测试油站</v>
-      </c>
-      <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
-        <v>114.1186660</v>
-      </c>
-      <c r="E8" t="str">
-        <v>22.5320830</v>
-      </c>
-      <c r="F8" t="str">
-        <v>深圳市福田区罗湖地铁站</v>
-      </c>
-      <c r="G8" t="str">
-        <v>7</v>
-      </c>
-      <c r="H8" t="str">
-        <v>浙江省</v>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <v>Fri Jun 01 2018 11:26:16 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Fri Jun 01 2018 11:26:16 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L8">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>71</v>
-      </c>
-      <c r="B9" t="str">
-        <v>测试油站1</v>
-      </c>
-      <c r="C9" t="str">
-        <v/>
-      </c>
-      <c r="D9" t="str">
-        <v>117.8120790</v>
-      </c>
-      <c r="E9" t="str">
-        <v>30.9454290</v>
-      </c>
-      <c r="F9" t="str">
-        <v>安徽省铜陵</v>
-      </c>
-      <c r="G9" t="str">
-        <v>16</v>
-      </c>
-      <c r="H9" t="str">
-        <v>安徽省</v>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v>Mon Jun 04 2018 15:42:34 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Mon Jun 04 2018 15:42:34 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L9">
-        <v>null</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>72</v>
-      </c>
-      <c r="B10" t="str">
-        <v>123</v>
-      </c>
-      <c r="C10" t="str">
-        <v/>
-      </c>
-      <c r="D10" t="str">
-        <v>114.0550360</v>
-      </c>
-      <c r="E10" t="str">
-        <v>22.5215300</v>
-      </c>
-      <c r="F10" t="str">
-        <v>深圳市福田区</v>
-      </c>
-      <c r="G10" t="str">
-        <v>456</v>
-      </c>
-      <c r="H10" t="str">
-        <v>河北省</v>
-      </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
-      <c r="J10" t="str">
-        <v>Mon Jun 04 2018 15:51:44 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Mon Jun 04 2018 15:51:44 GMT+0800 (中国标准时间)</v>
-      </c>
-      <c r="L10">
-        <v>null</v>
+        <v>44.93</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
   </ignoredErrors>
 </worksheet>
 </file>